--- a/Magic-form.xlsx
+++ b/Magic-form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="19200" windowHeight="7280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="原生与jQ" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>18811:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构深度，整数
+使用 Infinity，可展开任意深度的嵌套数组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1170,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0">
+    <comment ref="H33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1260,43 +1283,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>18811:
-[beginindex,endindex)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>18811:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如没有，截取到最后
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B49" authorId="0">
       <text>
         <r>
@@ -1306,15 +1292,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>18811:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>18811:
 [beginindex,endindex)</t>
         </r>
       </text>
@@ -1342,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1338,30 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-str.trimRight()</t>
+[beginindex,endindex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>18811:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如没有，截取到最后
+</t>
         </r>
       </text>
     </comment>
@@ -1382,11 +1383,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-str.trimLeft()</t>
+str.trimRight()</t>
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="B54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>18811:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+str.trimLeft()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0">
+    <comment ref="H55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1427,28 +1450,6 @@
           </rPr>
           <t xml:space="preserve">
 原字符串不改变</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>18811:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-ES6</t>
         </r>
       </text>
     </comment>
@@ -1474,7 +1475,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="H85" authorId="0">
+    <comment ref="B57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>18811:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ES6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="576">
   <si>
     <t>原生</t>
   </si>
@@ -2740,10 +2763,34 @@
     <t>排序后的数组</t>
   </si>
   <si>
+    <t>arr.flat()</t>
+  </si>
+  <si>
+    <t>[depth]</t>
+  </si>
+  <si>
+    <t>数组降维</t>
+  </si>
+  <si>
+    <t>包含所有元素的新数组</t>
+  </si>
+  <si>
     <t>Arrary.from()</t>
   </si>
   <si>
     <t>想要转换成数组的伪数组对象或可迭代对象</t>
+  </si>
+  <si>
+    <t>Array.isArray()</t>
+  </si>
+  <si>
+    <t>需要检测的值</t>
+  </si>
+  <si>
+    <t>判断传入的值是否是数组</t>
+  </si>
+  <si>
+    <t>返回 true 或 false</t>
   </si>
   <si>
     <t>数组遍历</t>
@@ -2979,9 +3026,6 @@
   </si>
   <si>
     <t>判断当前字符串是否是以另外一个给定的子字符串“结尾”</t>
-  </si>
-  <si>
-    <t>返回 true 或 false</t>
   </si>
   <si>
     <t>str.startsWith()</t>
@@ -3220,9 +3264,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -3281,29 +3325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3319,39 +3340,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3362,27 +3367,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3411,8 +3395,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3462,19 +3506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3486,25 +3548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,31 +3566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3552,73 +3584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3636,7 +3608,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3853,13 +3897,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3888,17 +3975,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3911,55 +3994,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3968,133 +4012,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4539,7 +4583,7 @@
   </sheetPr>
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6741,12 +6785,12 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -7152,7 +7196,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" ht="37" customHeight="1" spans="1:8">
+    <row r="23" ht="34" customHeight="1" spans="1:8">
       <c r="A23" s="11"/>
       <c r="B23" s="13" t="s">
         <v>411</v>
@@ -7163,182 +7207,198 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>413</v>
+      </c>
       <c r="H23" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:8">
       <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>416</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:8">
+      <c r="H24" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="37" customHeight="1" spans="1:8">
       <c r="A25" s="11"/>
-      <c r="B25" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>418</v>
+      </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
       <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>415</v>
-      </c>
+      <c r="B26" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="27" ht="33" customHeight="1" spans="1:8">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="11"/>
       <c r="B27" s="13" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>419</v>
-      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:8">
       <c r="A28" s="11"/>
       <c r="B28" s="13" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" ht="32.5" customHeight="1" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" ht="33" customHeight="1" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="13" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" ht="32.5" customHeight="1" spans="1:8">
       <c r="A30" s="11"/>
       <c r="B30" s="13" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="31" ht="35.5" customHeight="1" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" ht="32.5" customHeight="1" spans="1:8">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="H31" s="14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" ht="35.5" customHeight="1" spans="1:8">
       <c r="A32" s="11"/>
       <c r="B32" s="13" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>433</v>
-      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="33" ht="60.5" customHeight="1" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:8">
       <c r="A33" s="11"/>
       <c r="B33" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>436</v>
+        <v>440</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="14" t="s">
-        <v>437</v>
+      <c r="G33" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" ht="60.5" customHeight="1" spans="1:8">
       <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:8">
       <c r="A35" s="11"/>
@@ -7390,444 +7450,442 @@
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="1:8">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="H41" s="12"/>
+    <row r="40" ht="20" customHeight="1" spans="1:8">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" ht="37.5" customHeight="1" spans="1:8">
+    <row r="43" ht="20" customHeight="1" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44" ht="20" customHeight="1" spans="1:8">
+      <c r="G43" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" ht="37.5" customHeight="1" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>448</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
-        <v>449</v>
+      <c r="G44" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" ht="38.5" customHeight="1" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>368</v>
+      <c r="G45" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="46" ht="38.5" customHeight="1" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="47" ht="33.5" customHeight="1" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" ht="38.5" customHeight="1" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" ht="33.5" customHeight="1" spans="1:8">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>460</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>462</v>
+      <c r="G48" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:8">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>400</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:8">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>400</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:8">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+        <v>472</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:8">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:8">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:8">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>474</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:8">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:8">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:8">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D57" s="11"/>
+        <v>485</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="58" ht="33" customHeight="1" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="1:8">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="12" t="s">
-        <v>487</v>
+      <c r="G58" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="59" ht="33.5" customHeight="1" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" ht="33" customHeight="1" spans="1:8">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" ht="33.5" customHeight="1" spans="1:8">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="12" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:8">
-      <c r="A61" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B61" s="11"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" ht="33.5" customHeight="1" spans="1:8">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
+        <v>499</v>
+      </c>
       <c r="C61" s="11" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="12" t="s">
+        <v>500</v>
+      </c>
       <c r="H61" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A62" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" ht="41" customHeight="1" spans="1:8">
-      <c r="A63" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:8">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
-        <v>499</v>
-      </c>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:8">
+      <c r="A62" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A63" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" ht="41" customHeight="1" spans="1:8">
+      <c r="A64" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="20" t="s">
-        <v>500</v>
-      </c>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:8">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="20" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:8">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -7839,7 +7897,7 @@
     <row r="67" ht="20" customHeight="1" spans="1:8">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -7850,25 +7908,27 @@
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:8">
       <c r="A68" s="11"/>
-      <c r="B68" s="38" t="s">
-        <v>504</v>
+      <c r="B68" s="11" t="s">
+        <v>510</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="22"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:8">
       <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="B69" s="38" t="s">
+        <v>511</v>
+      </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="22"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:8">
       <c r="A70" s="11"/>
@@ -7880,74 +7940,66 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A71" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:8">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>508</v>
-      </c>
+    <row r="71" ht="20" customHeight="1" spans="1:8">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A72" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:8">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>510</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:8">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:8">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>517</v>
@@ -7956,73 +8008,81 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:8">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:8">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:8">
       <c r="A78" s="11"/>
       <c r="B78" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>531</v>
+      </c>
       <c r="H78" s="12" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:8">
       <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>534</v>
+      </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:8">
       <c r="A80" s="11"/>
@@ -8034,103 +8094,103 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A81" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:8">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>533</v>
-      </c>
+    <row r="81" ht="20" customHeight="1" spans="1:8">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A82" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:8">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:8">
       <c r="A84" s="11"/>
       <c r="B84" s="11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>539</v>
-      </c>
+      <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:8">
       <c r="A85" s="11"/>
       <c r="B85" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:8">
       <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:8">
       <c r="A87" s="11"/>
@@ -8174,38 +8234,38 @@
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:8">
       <c r="A91" s="11"/>
-      <c r="B91" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>547</v>
-      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="12" t="s">
-        <v>548</v>
-      </c>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:8">
       <c r="A92" s="11"/>
       <c r="B92" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="12" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:8">
       <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -9272,16 +9332,26 @@
       <c r="G199" s="11"/>
       <c r="H199" s="12"/>
     </row>
+    <row r="200" ht="20" customHeight="1" spans="1:8">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A82:H82"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="H65:H69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9317,10 +9387,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9328,41 +9398,41 @@
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9370,7 +9440,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9378,29 +9448,29 @@
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9408,7 +9478,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
